--- a/IPL/Royal Challengers Bangalore/Jos Buttler.xlsx
+++ b/IPL/Royal Challengers Bangalore/Jos Buttler.xlsx
@@ -445,28 +445,31 @@
         <v>Jos Buttler</v>
       </c>
       <c r="C2" t="str">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>176.66</v>
+        <v>0.00</v>
       </c>
       <c r="H2" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I2" t="str">
-        <v>Ahmedabad</v>
+        <v>Jaipur</v>
       </c>
       <c r="J2" t="str">
-        <v>May 27 2022</v>
+        <v>May 14 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,31 +480,31 @@
         <v>Jos Buttler</v>
       </c>
       <c r="C3" t="str">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>176.66</v>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I3" t="str">
-        <v>Ahmedabad</v>
+        <v>Bengaluru</v>
       </c>
       <c r="J3" t="str">
-        <v>May 27 2022</v>
+        <v>April 23 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
+        <v/>
       </c>
     </row>
   </sheetData>
